--- a/Functions/1 IF, IFs, AND, OR Functions/1 IF Function Complate Details.xlsx
+++ b/Functions/1 IF, IFs, AND, OR Functions/1 IF Function Complate Details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA Analytics Study data\Digital Analysis 3.0M\GitHub\Excel-Advance-Practice\Functions\1 IF, IFs, AND, OR Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E154C940-B07B-419D-8630-CF3E76B2CFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13F3641-5142-4C14-A886-2DF782C73948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{532EFC78-B8CB-42A4-8E9F-7A2F39BC48D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{532EFC78-B8CB-42A4-8E9F-7A2F39BC48D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data File" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="571">
   <si>
     <t>Order ID</t>
   </si>
@@ -1294,33 +1294,12 @@
     <t>IF(SUM(D10:H10)&gt;=$J$5,"Passed","Failed")</t>
   </si>
   <si>
-    <t>"="</t>
-  </si>
-  <si>
-    <t>IF(10 &gt; 5 , True, False)</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
     <t>()</t>
   </si>
   <si>
     <t>Logic</t>
   </si>
   <si>
-    <t>True False</t>
-  </si>
-  <si>
-    <t>Result if True</t>
-  </si>
-  <si>
-    <t>Result if False</t>
-  </si>
-  <si>
-    <t>True of False</t>
-  </si>
-  <si>
     <t>Hard Coded Value</t>
   </si>
   <si>
@@ -1748,13 +1727,37 @@
   </si>
   <si>
     <t>IF(J11&gt;$K$7,D11&amp;" =&gt; "&amp;J11&amp;" / "&amp;K11,"")</t>
+  </si>
+  <si>
+    <t>"= "     IF     ()</t>
+  </si>
+  <si>
+    <t>IF       ()</t>
+  </si>
+  <si>
+    <t>Statement IF True</t>
+  </si>
+  <si>
+    <t>Statement if False</t>
+  </si>
+  <si>
+    <t>10 &gt; 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 &lt; 10 </t>
+  </si>
+  <si>
+    <t>"Bilal" = "Ali"</t>
+  </si>
+  <si>
+    <t>Examples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1960,8 +1963,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2177,8 +2196,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2501,6 +2526,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2546,7 +2582,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2568,7 +2604,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2581,6 +2616,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2605,9 +2643,14 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2653,7 +2696,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2671,16 +2714,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3104,13 +3137,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE823EC-3807-48D2-B0A9-D8482940564A}">
-  <dimension ref="A1:Q501"/>
+  <dimension ref="A1:U501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -3121,23 +3154,27 @@
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="68.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="79.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="79.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3162,11 +3199,11 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="Q1" s="23"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="U1" s="22"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -3191,14 +3228,14 @@
       <c r="H2" s="9">
         <v>7</v>
       </c>
-      <c r="O2" s="24" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q2" s="24" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="U2" s="26" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>13</v>
       </c>
@@ -3223,10 +3260,17 @@
       <c r="H3" s="12">
         <v>14</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="Q3" s="25"/>
-    </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="40" t="s">
+        <v>570</v>
+      </c>
+      <c r="M3" s="41">
+        <f>IF(F2 &gt;  500, G2, "Not Qualify")</f>
+        <v>658</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="U3" s="27"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
@@ -3251,12 +3295,12 @@
       <c r="H4" s="9">
         <v>8</v>
       </c>
-      <c r="J4" s="14"/>
-      <c r="L4" s="15" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="41">
+        <f>IF(E2 = "Mathura", G2, "Not Qualify")</f>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
@@ -3282,22 +3326,23 @@
         <v>8</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="N5">
+        <v>563</v>
+      </c>
+      <c r="M5" s="41" t="str">
+        <f>IF(E2 = " Mathura", G2, "Not Qualify")</f>
+        <v>Not Qualify</v>
+      </c>
+      <c r="R5">
         <v>1</v>
       </c>
-      <c r="O5" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>440</v>
+      </c>
+      <c r="U5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
@@ -3322,20 +3367,17 @@
       <c r="H6" s="9">
         <v>4</v>
       </c>
-      <c r="L6" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="N6">
+      <c r="R6">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>441</v>
+      </c>
+      <c r="U6" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -3360,20 +3402,17 @@
       <c r="H7" s="12">
         <v>4</v>
       </c>
-      <c r="J7" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="N7">
+      <c r="J7" s="35" t="s">
+        <v>564</v>
+      </c>
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="O7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
@@ -3398,20 +3437,17 @@
       <c r="H8" s="9">
         <v>4</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="N8">
+      <c r="R8">
         <v>4</v>
       </c>
-      <c r="O8" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>443</v>
+      </c>
+      <c r="U8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>34</v>
       </c>
@@ -3436,20 +3472,32 @@
       <c r="H9" s="12">
         <v>5</v>
       </c>
-      <c r="L9" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="N9">
+      <c r="J9" s="39" t="s">
+        <v>418</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>419</v>
+      </c>
+      <c r="M9" t="s">
+        <v>567</v>
+      </c>
+      <c r="N9" t="s">
+        <v>568</v>
+      </c>
+      <c r="O9" t="s">
+        <v>569</v>
+      </c>
+      <c r="R9">
         <v>5</v>
       </c>
-      <c r="O9" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>444</v>
+      </c>
+      <c r="U9" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -3474,17 +3522,17 @@
       <c r="H10" s="9">
         <v>2</v>
       </c>
-      <c r="L10" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="N10">
+      <c r="K10" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="R10">
         <v>6</v>
       </c>
-      <c r="O10" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
@@ -3509,17 +3557,20 @@
       <c r="H11" s="12">
         <v>5</v>
       </c>
-      <c r="N11">
+      <c r="K11" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="R11">
         <v>7</v>
       </c>
-      <c r="O11" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>446</v>
+      </c>
+      <c r="U11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>41</v>
       </c>
@@ -3544,24 +3595,17 @@
       <c r="H12" s="9">
         <v>9</v>
       </c>
-      <c r="J12" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="N12">
+      <c r="R12">
         <v>8</v>
       </c>
-      <c r="O12" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>447</v>
+      </c>
+      <c r="U12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>43</v>
       </c>
@@ -3586,17 +3630,20 @@
       <c r="H13" s="12">
         <v>6</v>
       </c>
-      <c r="L13" s="16" t="s">
-        <v>428</v>
-      </c>
-      <c r="N13">
+      <c r="J13" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="R13">
         <v>9</v>
       </c>
-      <c r="O13" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
         <v>45</v>
       </c>
@@ -3621,20 +3668,20 @@
       <c r="H14" s="9">
         <v>6</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>429</v>
-      </c>
-      <c r="N14">
+      <c r="K14" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="R14">
         <v>10</v>
       </c>
-      <c r="O14" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>449</v>
+      </c>
+      <c r="U14" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>46</v>
       </c>
@@ -3659,17 +3706,20 @@
       <c r="H15" s="12">
         <v>5</v>
       </c>
-      <c r="N15">
+      <c r="K15" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="R15">
         <v>11</v>
       </c>
-      <c r="O15" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S15" t="s">
+        <v>450</v>
+      </c>
+      <c r="U15" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>47</v>
       </c>
@@ -3694,14 +3744,14 @@
       <c r="H16" s="9">
         <v>5</v>
       </c>
-      <c r="N16">
+      <c r="R16">
         <v>12</v>
       </c>
-      <c r="O16" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>48</v>
       </c>
@@ -3726,24 +3776,17 @@
       <c r="H17" s="12">
         <v>1</v>
       </c>
-      <c r="J17" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="N17">
+      <c r="R17">
         <v>13</v>
       </c>
-      <c r="O17" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>452</v>
+      </c>
+      <c r="U17" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
@@ -3768,20 +3811,23 @@
       <c r="H18" s="9">
         <v>5</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="N18">
+      <c r="J18" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="R18">
         <v>14</v>
       </c>
-      <c r="O18" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>453</v>
+      </c>
+      <c r="U18" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>50</v>
       </c>
@@ -3806,17 +3852,17 @@
       <c r="H19" s="12">
         <v>1</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="N19">
+      <c r="K19" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="R19">
         <v>15</v>
       </c>
-      <c r="O19" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>51</v>
       </c>
@@ -3841,20 +3887,20 @@
       <c r="H20" s="9">
         <v>5</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="N20">
+      <c r="K20" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="R20">
         <v>16</v>
       </c>
-      <c r="O20" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S20" t="s">
+        <v>455</v>
+      </c>
+      <c r="U20" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>53</v>
       </c>
@@ -3879,17 +3925,20 @@
       <c r="H21" s="12">
         <v>2</v>
       </c>
-      <c r="N21">
+      <c r="K21" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="R21">
         <v>17</v>
       </c>
-      <c r="O21" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>456</v>
+      </c>
+      <c r="U21" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>56</v>
       </c>
@@ -3914,21 +3963,14 @@
       <c r="H22" s="9">
         <v>5</v>
       </c>
-      <c r="J22" s="17" t="s">
-        <v>431</v>
-      </c>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="N22">
+      <c r="R22">
         <v>18</v>
       </c>
-      <c r="O22" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>59</v>
       </c>
@@ -3953,20 +3995,17 @@
       <c r="H23" s="12">
         <v>5</v>
       </c>
-      <c r="L23" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="N23">
+      <c r="R23">
         <v>19</v>
       </c>
-      <c r="O23" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S23" t="s">
+        <v>458</v>
+      </c>
+      <c r="U23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>60</v>
       </c>
@@ -3991,20 +4030,23 @@
       <c r="H24" s="9">
         <v>6</v>
       </c>
-      <c r="L24" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="N24">
+      <c r="J24" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="R24">
         <v>20</v>
       </c>
-      <c r="O24" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S24" t="s">
+        <v>459</v>
+      </c>
+      <c r="U24" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>61</v>
       </c>
@@ -4029,17 +4071,17 @@
       <c r="H25" s="12">
         <v>4</v>
       </c>
-      <c r="L25" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="N25">
+      <c r="K25" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="R25">
         <v>21</v>
       </c>
-      <c r="O25" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S25" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>64</v>
       </c>
@@ -4064,20 +4106,20 @@
       <c r="H26" s="9">
         <v>2</v>
       </c>
-      <c r="L26" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="N26">
+      <c r="K26" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="R26">
         <v>22</v>
       </c>
-      <c r="O26" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="S26" t="s">
+        <v>461</v>
+      </c>
+      <c r="U26" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>66</v>
       </c>
@@ -4102,20 +4144,20 @@
       <c r="H27" s="12">
         <v>3</v>
       </c>
-      <c r="L27" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="N27">
+      <c r="K27" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="R27">
         <v>23</v>
       </c>
-      <c r="O27" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S27" t="s">
+        <v>462</v>
+      </c>
+      <c r="U27" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>68</v>
       </c>
@@ -4140,14 +4182,17 @@
       <c r="H28" s="9">
         <v>8</v>
       </c>
-      <c r="N28">
+      <c r="K28" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="R28">
         <v>24</v>
       </c>
-      <c r="O28" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>69</v>
       </c>
@@ -4172,17 +4217,20 @@
       <c r="H29" s="12">
         <v>6</v>
       </c>
-      <c r="N29">
+      <c r="K29" s="16" t="s">
+        <v>430</v>
+      </c>
+      <c r="R29">
         <v>25</v>
       </c>
-      <c r="O29" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S29" t="s">
+        <v>464</v>
+      </c>
+      <c r="U29" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>71</v>
       </c>
@@ -4207,17 +4255,17 @@
       <c r="H30" s="9">
         <v>6</v>
       </c>
-      <c r="N30">
+      <c r="R30">
         <v>26</v>
       </c>
-      <c r="O30" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S30" t="s">
+        <v>465</v>
+      </c>
+      <c r="U30" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
@@ -4242,14 +4290,14 @@
       <c r="H31" s="12">
         <v>3</v>
       </c>
-      <c r="N31">
+      <c r="R31">
         <v>27</v>
       </c>
-      <c r="O31" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S31" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>73</v>
       </c>
@@ -4274,17 +4322,17 @@
       <c r="H32" s="9">
         <v>5</v>
       </c>
-      <c r="N32">
-        <v>28</v>
-      </c>
-      <c r="O32" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <v>28</v>
+      </c>
+      <c r="S32" t="s">
+        <v>467</v>
+      </c>
+      <c r="U32" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>74</v>
       </c>
@@ -4309,17 +4357,17 @@
       <c r="H33" s="12">
         <v>8</v>
       </c>
-      <c r="N33">
+      <c r="R33">
         <v>29</v>
       </c>
-      <c r="O33" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S33" t="s">
+        <v>468</v>
+      </c>
+      <c r="U33" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>76</v>
       </c>
@@ -4344,14 +4392,14 @@
       <c r="H34" s="9">
         <v>8</v>
       </c>
-      <c r="N34">
+      <c r="R34">
         <v>30</v>
       </c>
-      <c r="O34" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S34" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>77</v>
       </c>
@@ -4376,17 +4424,17 @@
       <c r="H35" s="12">
         <v>4</v>
       </c>
-      <c r="N35">
+      <c r="R35">
         <v>31</v>
       </c>
-      <c r="O35" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S35" t="s">
+        <v>470</v>
+      </c>
+      <c r="U35" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>79</v>
       </c>
@@ -4411,17 +4459,17 @@
       <c r="H36" s="9">
         <v>2</v>
       </c>
-      <c r="N36">
+      <c r="R36">
         <v>32</v>
       </c>
-      <c r="O36" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S36" t="s">
+        <v>471</v>
+      </c>
+      <c r="U36" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>80</v>
       </c>
@@ -4446,14 +4494,14 @@
       <c r="H37" s="12">
         <v>5</v>
       </c>
-      <c r="N37">
+      <c r="R37">
         <v>33</v>
       </c>
-      <c r="O37" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S37" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>82</v>
       </c>
@@ -4478,17 +4526,17 @@
       <c r="H38" s="9">
         <v>1</v>
       </c>
-      <c r="N38">
+      <c r="R38">
         <v>34</v>
       </c>
-      <c r="O38" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S38" t="s">
+        <v>473</v>
+      </c>
+      <c r="U38" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>85</v>
       </c>
@@ -4513,17 +4561,17 @@
       <c r="H39" s="12">
         <v>5</v>
       </c>
-      <c r="N39">
+      <c r="R39">
         <v>35</v>
       </c>
-      <c r="O39" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S39" t="s">
+        <v>474</v>
+      </c>
+      <c r="U39" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>86</v>
       </c>
@@ -4548,14 +4596,14 @@
       <c r="H40" s="9">
         <v>2</v>
       </c>
-      <c r="N40">
+      <c r="R40">
         <v>36</v>
       </c>
-      <c r="O40" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>87</v>
       </c>
@@ -4580,17 +4628,17 @@
       <c r="H41" s="12">
         <v>2</v>
       </c>
-      <c r="N41">
+      <c r="R41">
         <v>37</v>
       </c>
-      <c r="O41" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S41" t="s">
+        <v>476</v>
+      </c>
+      <c r="U41" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>88</v>
       </c>
@@ -4615,17 +4663,17 @@
       <c r="H42" s="9">
         <v>3</v>
       </c>
-      <c r="N42">
+      <c r="R42">
         <v>38</v>
       </c>
-      <c r="O42" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S42" t="s">
+        <v>477</v>
+      </c>
+      <c r="U42" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>89</v>
       </c>
@@ -4650,14 +4698,14 @@
       <c r="H43" s="12">
         <v>1</v>
       </c>
-      <c r="N43">
+      <c r="R43">
         <v>39</v>
       </c>
-      <c r="O43" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S43" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>8</v>
       </c>
@@ -4682,17 +4730,17 @@
       <c r="H44" s="9">
         <v>3</v>
       </c>
-      <c r="N44">
+      <c r="R44">
         <v>40</v>
       </c>
-      <c r="O44" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S44" t="s">
+        <v>479</v>
+      </c>
+      <c r="U44" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>90</v>
       </c>
@@ -4717,17 +4765,17 @@
       <c r="H45" s="12">
         <v>2</v>
       </c>
-      <c r="N45">
+      <c r="R45">
         <v>41</v>
       </c>
-      <c r="O45" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S45" t="s">
+        <v>477</v>
+      </c>
+      <c r="U45" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>92</v>
       </c>
@@ -4752,14 +4800,14 @@
       <c r="H46" s="9">
         <v>3</v>
       </c>
-      <c r="N46">
+      <c r="R46">
         <v>42</v>
       </c>
-      <c r="O46" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S46" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>93</v>
       </c>
@@ -4784,17 +4832,17 @@
       <c r="H47" s="12">
         <v>3</v>
       </c>
-      <c r="N47">
+      <c r="R47">
         <v>43</v>
       </c>
-      <c r="O47" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S47" t="s">
+        <v>479</v>
+      </c>
+      <c r="U47" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>94</v>
       </c>
@@ -4819,11 +4867,11 @@
       <c r="H48" s="9">
         <v>6</v>
       </c>
-      <c r="Q48" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U48" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>96</v>
       </c>
@@ -4849,7 +4897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>97</v>
       </c>
@@ -4874,11 +4922,11 @@
       <c r="H50" s="9">
         <v>9</v>
       </c>
-      <c r="Q50" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U50" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>99</v>
       </c>
@@ -4903,11 +4951,11 @@
       <c r="H51" s="12">
         <v>4</v>
       </c>
-      <c r="Q51" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U51" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>100</v>
       </c>
@@ -4933,7 +4981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>48</v>
       </c>
@@ -4958,11 +5006,11 @@
       <c r="H53" s="12">
         <v>8</v>
       </c>
-      <c r="Q53" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>101</v>
       </c>
@@ -4987,11 +5035,11 @@
       <c r="H54" s="9">
         <v>13</v>
       </c>
-      <c r="Q54" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U54" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>103</v>
       </c>
@@ -5017,7 +5065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>104</v>
       </c>
@@ -5042,11 +5090,11 @@
       <c r="H56" s="9">
         <v>1</v>
       </c>
-      <c r="Q56" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U56" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>107</v>
       </c>
@@ -5071,11 +5119,11 @@
       <c r="H57" s="12">
         <v>3</v>
       </c>
-      <c r="Q57" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U57" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>108</v>
       </c>
@@ -5101,7 +5149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>109</v>
       </c>
@@ -5126,11 +5174,11 @@
       <c r="H59" s="12">
         <v>2</v>
       </c>
-      <c r="Q59" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U59" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>110</v>
       </c>
@@ -5155,11 +5203,11 @@
       <c r="H60" s="9">
         <v>1</v>
       </c>
-      <c r="Q60" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U60" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>111</v>
       </c>
@@ -5185,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>113</v>
       </c>
@@ -5210,11 +5258,11 @@
       <c r="H62" s="9">
         <v>7</v>
       </c>
-      <c r="Q62" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U62" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>114</v>
       </c>
@@ -5239,11 +5287,11 @@
       <c r="H63" s="12">
         <v>1</v>
       </c>
-      <c r="Q63" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U63" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>115</v>
       </c>
@@ -5269,7 +5317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>116</v>
       </c>
@@ -5294,11 +5342,11 @@
       <c r="H65" s="12">
         <v>7</v>
       </c>
-      <c r="Q65" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U65" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>117</v>
       </c>
@@ -5323,11 +5371,11 @@
       <c r="H66" s="9">
         <v>3</v>
       </c>
-      <c r="Q66" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U66" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>118</v>
       </c>
@@ -5353,7 +5401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>120</v>
       </c>
@@ -5378,11 +5426,11 @@
       <c r="H68" s="9">
         <v>2</v>
       </c>
-      <c r="Q68" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U68" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>121</v>
       </c>
@@ -5407,11 +5455,11 @@
       <c r="H69" s="12">
         <v>5</v>
       </c>
-      <c r="Q69" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U69" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>123</v>
       </c>
@@ -5437,7 +5485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>124</v>
       </c>
@@ -5462,11 +5510,11 @@
       <c r="H71" s="12">
         <v>4</v>
       </c>
-      <c r="Q71" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U71" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>125</v>
       </c>
@@ -5491,11 +5539,11 @@
       <c r="H72" s="9">
         <v>5</v>
       </c>
-      <c r="Q72" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U72" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>126</v>
       </c>
@@ -5521,7 +5569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
         <v>127</v>
       </c>
@@ -5546,11 +5594,11 @@
       <c r="H74" s="9">
         <v>4</v>
       </c>
-      <c r="Q74" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U74" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>128</v>
       </c>
@@ -5575,11 +5623,11 @@
       <c r="H75" s="12">
         <v>9</v>
       </c>
-      <c r="Q75" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U75" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
         <v>129</v>
       </c>
@@ -5605,7 +5653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>130</v>
       </c>
@@ -5630,11 +5678,11 @@
       <c r="H77" s="12">
         <v>4</v>
       </c>
-      <c r="Q77" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U77" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>131</v>
       </c>
@@ -5659,11 +5707,11 @@
       <c r="H78" s="9">
         <v>4</v>
       </c>
-      <c r="Q78" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U78" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>133</v>
       </c>
@@ -5689,7 +5737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>134</v>
       </c>
@@ -5714,11 +5762,11 @@
       <c r="H80" s="9">
         <v>3</v>
       </c>
-      <c r="Q80" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U80" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>53</v>
       </c>
@@ -5743,11 +5791,11 @@
       <c r="H81" s="12">
         <v>3</v>
       </c>
-      <c r="Q81" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U81" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
         <v>135</v>
       </c>
@@ -5773,7 +5821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>136</v>
       </c>
@@ -5798,11 +5846,11 @@
       <c r="H83" s="12">
         <v>7</v>
       </c>
-      <c r="Q83" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U83" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>137</v>
       </c>
@@ -5827,11 +5875,11 @@
       <c r="H84" s="9">
         <v>9</v>
       </c>
-      <c r="Q84" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U84" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>138</v>
       </c>
@@ -5857,7 +5905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>139</v>
       </c>
@@ -5882,11 +5930,11 @@
       <c r="H86" s="9">
         <v>11</v>
       </c>
-      <c r="Q86" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U86" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>140</v>
       </c>
@@ -5911,11 +5959,11 @@
       <c r="H87" s="12">
         <v>9</v>
       </c>
-      <c r="Q87" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U87" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>141</v>
       </c>
@@ -5941,7 +5989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>142</v>
       </c>
@@ -5966,11 +6014,11 @@
       <c r="H89" s="12">
         <v>3</v>
       </c>
-      <c r="Q89" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U89" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>51</v>
       </c>
@@ -5995,11 +6043,11 @@
       <c r="H90" s="9">
         <v>6</v>
       </c>
-      <c r="Q90" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U90" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>144</v>
       </c>
@@ -6025,7 +6073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>145</v>
       </c>
@@ -6050,11 +6098,11 @@
       <c r="H92" s="9">
         <v>2</v>
       </c>
-      <c r="Q92" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U92" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>146</v>
       </c>
@@ -6079,11 +6127,11 @@
       <c r="H93" s="12">
         <v>8</v>
       </c>
-      <c r="Q93" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U93" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>147</v>
       </c>
@@ -6109,7 +6157,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>148</v>
       </c>
@@ -6134,11 +6182,11 @@
       <c r="H95" s="12">
         <v>7</v>
       </c>
-      <c r="Q95" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U95" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>133</v>
       </c>
@@ -6163,11 +6211,11 @@
       <c r="H96" s="9">
         <v>9</v>
       </c>
-      <c r="Q96" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U96" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>149</v>
       </c>
@@ -6193,7 +6241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>150</v>
       </c>
@@ -6218,11 +6266,11 @@
       <c r="H98" s="9">
         <v>3</v>
       </c>
-      <c r="Q98" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U98" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>151</v>
       </c>
@@ -6247,11 +6295,11 @@
       <c r="H99" s="12">
         <v>3</v>
       </c>
-      <c r="Q99" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U99" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>152</v>
       </c>
@@ -6277,7 +6325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>154</v>
       </c>
@@ -6302,11 +6350,11 @@
       <c r="H101" s="12">
         <v>3</v>
       </c>
-      <c r="Q101" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U101" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
         <v>139</v>
       </c>
@@ -6331,11 +6379,11 @@
       <c r="H102" s="9">
         <v>2</v>
       </c>
-      <c r="Q102" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U102" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>155</v>
       </c>
@@ -6361,7 +6409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
         <v>156</v>
       </c>
@@ -6386,11 +6434,11 @@
       <c r="H104" s="9">
         <v>6</v>
       </c>
-      <c r="Q104" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U104" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>157</v>
       </c>
@@ -6415,11 +6463,11 @@
       <c r="H105" s="12">
         <v>9</v>
       </c>
-      <c r="Q105" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U105" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>158</v>
       </c>
@@ -6445,7 +6493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>159</v>
       </c>
@@ -6470,11 +6518,11 @@
       <c r="H107" s="12">
         <v>7</v>
       </c>
-      <c r="Q107" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U107" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>150</v>
       </c>
@@ -6499,11 +6547,11 @@
       <c r="H108" s="9">
         <v>2</v>
       </c>
-      <c r="Q108" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U108" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>160</v>
       </c>
@@ -6529,7 +6577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>159</v>
       </c>
@@ -6554,11 +6602,11 @@
       <c r="H110" s="9">
         <v>6</v>
       </c>
-      <c r="Q110" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U110" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>162</v>
       </c>
@@ -6583,11 +6631,11 @@
       <c r="H111" s="12">
         <v>6</v>
       </c>
-      <c r="Q111" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U111" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>163</v>
       </c>
@@ -6613,7 +6661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>164</v>
       </c>
@@ -6638,11 +6686,11 @@
       <c r="H113" s="12">
         <v>2</v>
       </c>
-      <c r="Q113" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U113" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>165</v>
       </c>
@@ -6667,11 +6715,11 @@
       <c r="H114" s="9">
         <v>5</v>
       </c>
-      <c r="Q114" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U114" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>166</v>
       </c>
@@ -6697,7 +6745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>167</v>
       </c>
@@ -6722,11 +6770,11 @@
       <c r="H116" s="9">
         <v>3</v>
       </c>
-      <c r="Q116" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U116" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>36</v>
       </c>
@@ -6751,11 +6799,11 @@
       <c r="H117" s="12">
         <v>8</v>
       </c>
-      <c r="Q117" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U117" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>168</v>
       </c>
@@ -6781,7 +6829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>169</v>
       </c>
@@ -6806,11 +6854,11 @@
       <c r="H119" s="12">
         <v>1</v>
       </c>
-      <c r="Q119" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U119" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>170</v>
       </c>
@@ -6835,11 +6883,11 @@
       <c r="H120" s="9">
         <v>5</v>
       </c>
-      <c r="Q120" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U120" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
         <v>157</v>
       </c>
@@ -6865,7 +6913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>171</v>
       </c>
@@ -6890,11 +6938,11 @@
       <c r="H122" s="9">
         <v>1</v>
       </c>
-      <c r="Q122" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U122" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>173</v>
       </c>
@@ -6919,11 +6967,11 @@
       <c r="H123" s="12">
         <v>4</v>
       </c>
-      <c r="Q123" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U123" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
         <v>174</v>
       </c>
@@ -6949,7 +6997,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
         <v>175</v>
       </c>
@@ -6975,7 +7023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>176</v>
       </c>
@@ -7001,7 +7049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
         <v>69</v>
       </c>
@@ -7027,7 +7075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>177</v>
       </c>
@@ -7053,7 +7101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
         <v>178</v>
       </c>
@@ -7079,7 +7127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>170</v>
       </c>
@@ -7105,7 +7153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
         <v>179</v>
       </c>
@@ -7131,7 +7179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
         <v>180</v>
       </c>
@@ -7157,7 +7205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>181</v>
       </c>
@@ -7183,7 +7231,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>182</v>
       </c>
@@ -7209,7 +7257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
         <v>183</v>
       </c>
@@ -7235,7 +7283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
         <v>184</v>
       </c>
@@ -7261,7 +7309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
         <v>139</v>
       </c>
@@ -7287,7 +7335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>185</v>
       </c>
@@ -7313,7 +7361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
         <v>141</v>
       </c>
@@ -7339,7 +7387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>187</v>
       </c>
@@ -7365,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
         <v>188</v>
       </c>
@@ -7391,7 +7439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>189</v>
       </c>
@@ -7417,7 +7465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
         <v>80</v>
       </c>
@@ -7443,7 +7491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
         <v>190</v>
       </c>
@@ -7469,7 +7517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
         <v>191</v>
       </c>
@@ -7495,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
         <v>192</v>
       </c>
@@ -7521,7 +7569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
         <v>59</v>
       </c>
@@ -7547,7 +7595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>193</v>
       </c>
@@ -7573,7 +7621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
         <v>194</v>
       </c>
@@ -7599,7 +7647,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>140</v>
       </c>
@@ -7625,7 +7673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
         <v>196</v>
       </c>
@@ -7651,7 +7699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>151</v>
       </c>
@@ -7677,7 +7725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="10" t="s">
         <v>197</v>
       </c>
@@ -7703,7 +7751,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>198</v>
       </c>
@@ -7729,7 +7777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
         <v>20</v>
       </c>
@@ -7755,7 +7803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>199</v>
       </c>
@@ -7781,7 +7829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="10" t="s">
         <v>200</v>
       </c>
@@ -7807,7 +7855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
         <v>201</v>
       </c>
@@ -7833,7 +7881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
         <v>202</v>
       </c>
@@ -7859,7 +7907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>203</v>
       </c>
@@ -7885,7 +7933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="10" t="s">
         <v>24</v>
       </c>
@@ -7911,7 +7959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>130</v>
       </c>
@@ -7937,7 +7985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="10" t="s">
         <v>204</v>
       </c>
@@ -7963,7 +8011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>205</v>
       </c>
@@ -7989,7 +8037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="10" t="s">
         <v>206</v>
       </c>
@@ -8015,7 +8063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
         <v>204</v>
       </c>
@@ -8041,7 +8089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
         <v>207</v>
       </c>
@@ -8067,7 +8115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>208</v>
       </c>
@@ -8093,7 +8141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
         <v>209</v>
       </c>
@@ -8119,7 +8167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>210</v>
       </c>
@@ -8145,7 +8193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
         <v>61</v>
       </c>
@@ -8171,7 +8219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>211</v>
       </c>
@@ -8197,7 +8245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="10" t="s">
         <v>212</v>
       </c>
@@ -8223,7 +8271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>204</v>
       </c>
@@ -8249,7 +8297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
         <v>152</v>
       </c>
@@ -8275,7 +8323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>8</v>
       </c>
@@ -8301,7 +8349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="10" t="s">
         <v>213</v>
       </c>
@@ -8327,7 +8375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>214</v>
       </c>
@@ -8353,7 +8401,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="10" t="s">
         <v>215</v>
       </c>
@@ -8379,7 +8427,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>216</v>
       </c>
@@ -8405,7 +8453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="10" t="s">
         <v>217</v>
       </c>
@@ -8431,7 +8479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>218</v>
       </c>
@@ -8457,7 +8505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
         <v>219</v>
       </c>
@@ -8483,7 +8531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>220</v>
       </c>
@@ -8509,7 +8557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="10" t="s">
         <v>221</v>
       </c>
@@ -8535,7 +8583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>222</v>
       </c>
@@ -8561,7 +8609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
         <v>223</v>
       </c>
@@ -8587,7 +8635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>224</v>
       </c>
@@ -8613,7 +8661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="10" t="s">
         <v>188</v>
       </c>
@@ -8639,7 +8687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>225</v>
       </c>
@@ -8665,7 +8713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="10" t="s">
         <v>226</v>
       </c>
@@ -8691,7 +8739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>13</v>
       </c>
@@ -8717,7 +8765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="10" t="s">
         <v>227</v>
       </c>
@@ -8743,7 +8791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>146</v>
       </c>
@@ -8769,7 +8817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="10" t="s">
         <v>151</v>
       </c>
@@ -8795,7 +8843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>228</v>
       </c>
@@ -8821,7 +8869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="10" t="s">
         <v>111</v>
       </c>
@@ -8847,7 +8895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>217</v>
       </c>
@@ -8873,7 +8921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="10" t="s">
         <v>27</v>
       </c>
@@ -8899,7 +8947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>229</v>
       </c>
@@ -8925,7 +8973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="10" t="s">
         <v>230</v>
       </c>
@@ -8951,7 +8999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
         <v>231</v>
       </c>
@@ -8977,7 +9025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="10" t="s">
         <v>232</v>
       </c>
@@ -9003,7 +9051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>150</v>
       </c>
@@ -9029,7 +9077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="10" t="s">
         <v>233</v>
       </c>
@@ -9055,7 +9103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>234</v>
       </c>
@@ -9081,7 +9129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="10" t="s">
         <v>235</v>
       </c>
@@ -9107,7 +9155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
         <v>236</v>
       </c>
@@ -9133,7 +9181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="10" t="s">
         <v>232</v>
       </c>
@@ -9159,7 +9207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
         <v>164</v>
       </c>
@@ -9185,7 +9233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="10" t="s">
         <v>148</v>
       </c>
@@ -9211,7 +9259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
         <v>164</v>
       </c>
@@ -9237,7 +9285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="10" t="s">
         <v>156</v>
       </c>
@@ -9263,7 +9311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
         <v>237</v>
       </c>
@@ -9289,7 +9337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="10" t="s">
         <v>238</v>
       </c>
@@ -9315,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
         <v>239</v>
       </c>
@@ -9341,7 +9389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="10" t="s">
         <v>240</v>
       </c>
@@ -9367,7 +9415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
         <v>241</v>
       </c>
@@ -9393,7 +9441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="10" t="s">
         <v>242</v>
       </c>
@@ -9419,7 +9467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
         <v>13</v>
       </c>
@@ -9445,7 +9493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="10" t="s">
         <v>146</v>
       </c>
@@ -9471,7 +9519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
         <v>185</v>
       </c>
@@ -9497,7 +9545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="10" t="s">
         <v>243</v>
       </c>
@@ -9523,7 +9571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
         <v>134</v>
       </c>
@@ -9549,7 +9597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="10" t="s">
         <v>24</v>
       </c>
@@ -9575,7 +9623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="7" t="s">
         <v>244</v>
       </c>
@@ -9601,7 +9649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="10" t="s">
         <v>218</v>
       </c>
@@ -9627,7 +9675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
         <v>47</v>
       </c>
@@ -9653,7 +9701,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="10" t="s">
         <v>245</v>
       </c>
@@ -9679,7 +9727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
         <v>51</v>
       </c>
@@ -9705,7 +9753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="10" t="s">
         <v>192</v>
       </c>
@@ -9731,7 +9779,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
         <v>196</v>
       </c>
@@ -9757,7 +9805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="10" t="s">
         <v>41</v>
       </c>
@@ -9783,7 +9831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
         <v>246</v>
       </c>
@@ -9809,7 +9857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="10" t="s">
         <v>247</v>
       </c>
@@ -9835,7 +9883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
         <v>248</v>
       </c>
@@ -9861,7 +9909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="10" t="s">
         <v>249</v>
       </c>
@@ -9887,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
         <v>85</v>
       </c>
@@ -9913,7 +9961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="10" t="s">
         <v>159</v>
       </c>
@@ -9939,7 +9987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
         <v>103</v>
       </c>
@@ -9965,7 +10013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="10" t="s">
         <v>250</v>
       </c>
@@ -9991,7 +10039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
         <v>251</v>
       </c>
@@ -10017,7 +10065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="10" t="s">
         <v>252</v>
       </c>
@@ -10043,7 +10091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
         <v>152</v>
       </c>
@@ -10069,7 +10117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="10" t="s">
         <v>159</v>
       </c>
@@ -10095,7 +10143,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
         <v>253</v>
       </c>
@@ -10121,7 +10169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="10" t="s">
         <v>85</v>
       </c>
@@ -10147,7 +10195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>158</v>
       </c>
@@ -10173,7 +10221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="10" t="s">
         <v>152</v>
       </c>
@@ -10199,7 +10247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
         <v>254</v>
       </c>
@@ -10225,7 +10273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="10" t="s">
         <v>199</v>
       </c>
@@ -10251,7 +10299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="7" t="s">
         <v>255</v>
       </c>
@@ -10277,7 +10325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="10" t="s">
         <v>256</v>
       </c>
@@ -10303,7 +10351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
         <v>220</v>
       </c>
@@ -10329,7 +10377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="10" t="s">
         <v>257</v>
       </c>
@@ -10355,7 +10403,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="7" t="s">
         <v>258</v>
       </c>
@@ -10381,7 +10429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="10" t="s">
         <v>79</v>
       </c>
@@ -10407,7 +10455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
         <v>259</v>
       </c>
@@ -10433,7 +10481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="10" t="s">
         <v>260</v>
       </c>
@@ -10459,7 +10507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="7" t="s">
         <v>261</v>
       </c>
@@ -10485,7 +10533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="10" t="s">
         <v>262</v>
       </c>
@@ -10511,7 +10559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="7" t="s">
         <v>49</v>
       </c>
@@ -10537,7 +10585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="10" t="s">
         <v>263</v>
       </c>
@@ -10563,7 +10611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
         <v>140</v>
       </c>
@@ -10589,7 +10637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="10" t="s">
         <v>41</v>
       </c>
@@ -10615,7 +10663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
         <v>264</v>
       </c>
@@ -10641,7 +10689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="10" t="s">
         <v>265</v>
       </c>
@@ -10667,7 +10715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="7" t="s">
         <v>144</v>
       </c>
@@ -10693,7 +10741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="10" t="s">
         <v>71</v>
       </c>
@@ -10719,7 +10767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
         <v>113</v>
       </c>
@@ -10745,7 +10793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="10" t="s">
         <v>266</v>
       </c>
@@ -10771,7 +10819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="7" t="s">
         <v>262</v>
       </c>
@@ -10797,7 +10845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="10" t="s">
         <v>241</v>
       </c>
@@ -10823,7 +10871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="7" t="s">
         <v>242</v>
       </c>
@@ -10849,7 +10897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="10" t="s">
         <v>166</v>
       </c>
@@ -10875,7 +10923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="7" t="s">
         <v>251</v>
       </c>
@@ -10901,7 +10949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="10" t="s">
         <v>232</v>
       </c>
@@ -10927,7 +10975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
         <v>165</v>
       </c>
@@ -10953,7 +11001,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="10" t="s">
         <v>139</v>
       </c>
@@ -10979,7 +11027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="7" t="s">
         <v>36</v>
       </c>
@@ -11005,7 +11053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="10" t="s">
         <v>145</v>
       </c>
@@ -11031,7 +11079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
         <v>267</v>
       </c>
@@ -11057,7 +11105,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="10" t="s">
         <v>189</v>
       </c>
@@ -11083,7 +11131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="7" t="s">
         <v>268</v>
       </c>
@@ -11109,7 +11157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="10" t="s">
         <v>269</v>
       </c>
@@ -11135,7 +11183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="7" t="s">
         <v>164</v>
       </c>
@@ -11161,7 +11209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="10" t="s">
         <v>39</v>
       </c>
@@ -11187,7 +11235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="7" t="s">
         <v>270</v>
       </c>
@@ -11213,7 +11261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="10" t="s">
         <v>205</v>
       </c>
@@ -11239,7 +11287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="7" t="s">
         <v>27</v>
       </c>
@@ -11265,7 +11313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="10" t="s">
         <v>271</v>
       </c>
@@ -11291,7 +11339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="7" t="s">
         <v>272</v>
       </c>
@@ -11317,7 +11365,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="10" t="s">
         <v>273</v>
       </c>
@@ -11343,7 +11391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
         <v>262</v>
       </c>
@@ -11369,7 +11417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="10" t="s">
         <v>274</v>
       </c>
@@ -11395,7 +11443,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
         <v>46</v>
       </c>
@@ -11421,7 +11469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="10" t="s">
         <v>174</v>
       </c>
@@ -11447,7 +11495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="7" t="s">
         <v>179</v>
       </c>
@@ -11473,7 +11521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="10" t="s">
         <v>48</v>
       </c>
@@ -11499,7 +11547,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
         <v>275</v>
       </c>
@@ -11525,7 +11573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="10" t="s">
         <v>209</v>
       </c>
@@ -11551,7 +11599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
         <v>276</v>
       </c>
@@ -11577,7 +11625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="10" t="s">
         <v>277</v>
       </c>
@@ -11603,7 +11651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="7" t="s">
         <v>253</v>
       </c>
@@ -11629,7 +11677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="10" t="s">
         <v>278</v>
       </c>
@@ -11655,7 +11703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="7" t="s">
         <v>279</v>
       </c>
@@ -11681,7 +11729,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="10" t="s">
         <v>280</v>
       </c>
@@ -11707,7 +11755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="7" t="s">
         <v>164</v>
       </c>
@@ -11733,7 +11781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="10" t="s">
         <v>281</v>
       </c>
@@ -11759,7 +11807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="7" t="s">
         <v>282</v>
       </c>
@@ -11785,7 +11833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="10" t="s">
         <v>283</v>
       </c>
@@ -11811,7 +11859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
         <v>284</v>
       </c>
@@ -11837,7 +11885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="10" t="s">
         <v>285</v>
       </c>
@@ -11863,7 +11911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="7" t="s">
         <v>286</v>
       </c>
@@ -11889,7 +11937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="10" t="s">
         <v>247</v>
       </c>
@@ -11915,7 +11963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
         <v>263</v>
       </c>
@@ -11941,7 +11989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="10" t="s">
         <v>223</v>
       </c>
@@ -11967,7 +12015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
         <v>287</v>
       </c>
@@ -11993,7 +12041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="10" t="s">
         <v>244</v>
       </c>
@@ -12019,7 +12067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="7" t="s">
         <v>288</v>
       </c>
@@ -12045,7 +12093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" s="10" t="s">
         <v>289</v>
       </c>
@@ -12071,7 +12119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" s="7" t="s">
         <v>61</v>
       </c>
@@ -12097,7 +12145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" s="10" t="s">
         <v>290</v>
       </c>
@@ -12123,7 +12171,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
         <v>204</v>
       </c>
@@ -12149,7 +12197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" s="10" t="s">
         <v>286</v>
       </c>
@@ -12175,7 +12223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" s="7" t="s">
         <v>18</v>
       </c>
@@ -12201,7 +12249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" s="10" t="s">
         <v>275</v>
       </c>
@@ -12227,7 +12275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" s="7" t="s">
         <v>291</v>
       </c>
@@ -12253,7 +12301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" s="10" t="s">
         <v>292</v>
       </c>
@@ -12279,7 +12327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
         <v>254</v>
       </c>
@@ -12305,7 +12353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" s="10" t="s">
         <v>293</v>
       </c>
@@ -12331,7 +12379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" s="7" t="s">
         <v>294</v>
       </c>
@@ -12355,7 +12403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" s="10" t="s">
         <v>209</v>
       </c>
@@ -12381,7 +12429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" s="7" t="s">
         <v>295</v>
       </c>
@@ -12407,7 +12455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" s="10" t="s">
         <v>73</v>
       </c>
@@ -12433,7 +12481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" s="7" t="s">
         <v>291</v>
       </c>
@@ -12459,7 +12507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="10" t="s">
         <v>296</v>
       </c>
@@ -12485,7 +12533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="7" t="s">
         <v>297</v>
       </c>
@@ -12511,7 +12559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="10" t="s">
         <v>298</v>
       </c>
@@ -12537,7 +12585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="7" t="s">
         <v>249</v>
       </c>
@@ -12563,7 +12611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="10" t="s">
         <v>48</v>
       </c>
@@ -12589,7 +12637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="7" t="s">
         <v>299</v>
       </c>
@@ -12615,7 +12663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" s="10" t="s">
         <v>111</v>
       </c>
@@ -12641,7 +12689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" s="7" t="s">
         <v>157</v>
       </c>
@@ -12667,7 +12715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" s="10" t="s">
         <v>300</v>
       </c>
@@ -12693,7 +12741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" s="7" t="s">
         <v>301</v>
       </c>
@@ -12719,7 +12767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="10" t="s">
         <v>302</v>
       </c>
@@ -12745,7 +12793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="7" t="s">
         <v>303</v>
       </c>
@@ -12771,7 +12819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="10" t="s">
         <v>253</v>
       </c>
@@ -12797,7 +12845,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" s="7" t="s">
         <v>8</v>
       </c>
@@ -12823,7 +12871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" s="10" t="s">
         <v>113</v>
       </c>
@@ -12849,7 +12897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
         <v>211</v>
       </c>
@@ -12875,7 +12923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" s="10" t="s">
         <v>304</v>
       </c>
@@ -12901,7 +12949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" s="7" t="s">
         <v>199</v>
       </c>
@@ -12927,7 +12975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" s="10" t="s">
         <v>286</v>
       </c>
@@ -12953,7 +13001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" s="7" t="s">
         <v>305</v>
       </c>
@@ -12979,7 +13027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" s="10" t="s">
         <v>31</v>
       </c>
@@ -13005,7 +13053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" s="7" t="s">
         <v>306</v>
       </c>
@@ -13031,7 +13079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" s="10" t="s">
         <v>219</v>
       </c>
@@ -13057,7 +13105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" s="7" t="s">
         <v>307</v>
       </c>
@@ -13081,7 +13129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" s="10" t="s">
         <v>139</v>
       </c>
@@ -13107,7 +13155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" s="7" t="s">
         <v>308</v>
       </c>
@@ -13133,7 +13181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" s="10" t="s">
         <v>309</v>
       </c>
@@ -13159,7 +13207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" s="7" t="s">
         <v>310</v>
       </c>
@@ -13185,7 +13233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" s="10" t="s">
         <v>202</v>
       </c>
@@ -13211,7 +13259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" s="7" t="s">
         <v>281</v>
       </c>
@@ -13237,7 +13285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" s="10" t="s">
         <v>131</v>
       </c>
@@ -13263,7 +13311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" s="7" t="s">
         <v>311</v>
       </c>
@@ -13289,7 +13337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" s="10" t="s">
         <v>312</v>
       </c>
@@ -13315,7 +13363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" s="7" t="s">
         <v>234</v>
       </c>
@@ -13341,7 +13389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" s="10" t="s">
         <v>313</v>
       </c>
@@ -13367,7 +13415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" s="7" t="s">
         <v>8</v>
       </c>
@@ -13393,7 +13441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" s="10" t="s">
         <v>314</v>
       </c>
@@ -13419,7 +13467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" s="7" t="s">
         <v>315</v>
       </c>
@@ -13445,7 +13493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" s="10" t="s">
         <v>64</v>
       </c>
@@ -13471,7 +13519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" s="7" t="s">
         <v>243</v>
       </c>
@@ -13497,7 +13545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" s="10" t="s">
         <v>139</v>
       </c>
@@ -13523,7 +13571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" s="7" t="s">
         <v>316</v>
       </c>
@@ -13549,7 +13597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A379" s="10" t="s">
         <v>140</v>
       </c>
@@ -13575,7 +13623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A380" s="7" t="s">
         <v>139</v>
       </c>
@@ -13601,7 +13649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A381" s="10" t="s">
         <v>194</v>
       </c>
@@ -13627,7 +13675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A382" s="7" t="s">
         <v>199</v>
       </c>
@@ -13653,7 +13701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A383" s="10" t="s">
         <v>165</v>
       </c>
@@ -13679,7 +13727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A384" s="7" t="s">
         <v>241</v>
       </c>
@@ -13705,7 +13753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A385" s="10" t="s">
         <v>317</v>
       </c>
@@ -13731,7 +13779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A386" s="7" t="s">
         <v>318</v>
       </c>
@@ -13757,7 +13805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A387" s="10" t="s">
         <v>271</v>
       </c>
@@ -13783,7 +13831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A388" s="7" t="s">
         <v>266</v>
       </c>
@@ -13809,7 +13857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A389" s="10" t="s">
         <v>239</v>
       </c>
@@ -13835,7 +13883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A390" s="7" t="s">
         <v>319</v>
       </c>
@@ -13861,7 +13909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A391" s="10" t="s">
         <v>176</v>
       </c>
@@ -13887,7 +13935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A392" s="7" t="s">
         <v>320</v>
       </c>
@@ -13913,7 +13961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A393" s="10" t="s">
         <v>296</v>
       </c>
@@ -13939,7 +13987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A394" s="7" t="s">
         <v>13</v>
       </c>
@@ -13965,7 +14013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A395" s="10" t="s">
         <v>109</v>
       </c>
@@ -13991,7 +14039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A396" s="7" t="s">
         <v>13</v>
       </c>
@@ -14017,7 +14065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A397" s="10" t="s">
         <v>287</v>
       </c>
@@ -14043,7 +14091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A398" s="7" t="s">
         <v>82</v>
       </c>
@@ -14069,7 +14117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A399" s="10" t="s">
         <v>321</v>
       </c>
@@ -14095,7 +14143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A400" s="7" t="s">
         <v>322</v>
       </c>
@@ -14121,7 +14169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A401" s="10" t="s">
         <v>183</v>
       </c>
@@ -14147,7 +14195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A402" s="7" t="s">
         <v>239</v>
       </c>
@@ -14173,7 +14221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A403" s="10" t="s">
         <v>219</v>
       </c>
@@ -14199,7 +14247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A404" s="7" t="s">
         <v>323</v>
       </c>
@@ -14225,7 +14273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A405" s="10" t="s">
         <v>152</v>
       </c>
@@ -14251,7 +14299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A406" s="7" t="s">
         <v>324</v>
       </c>
@@ -14277,7 +14325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A407" s="10" t="s">
         <v>301</v>
       </c>
@@ -14303,7 +14351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A408" s="7" t="s">
         <v>325</v>
       </c>
@@ -14329,7 +14377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A409" s="10" t="s">
         <v>130</v>
       </c>
@@ -14355,7 +14403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A410" s="7" t="s">
         <v>326</v>
       </c>
@@ -14381,7 +14429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A411" s="10" t="s">
         <v>327</v>
       </c>
@@ -14407,7 +14455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A412" s="7" t="s">
         <v>41</v>
       </c>
@@ -14433,7 +14481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A413" s="10" t="s">
         <v>219</v>
       </c>
@@ -14459,7 +14507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A414" s="7" t="s">
         <v>272</v>
       </c>
@@ -14485,7 +14533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A415" s="10" t="s">
         <v>328</v>
       </c>
@@ -14511,7 +14559,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A416" s="7" t="s">
         <v>79</v>
       </c>
@@ -14537,7 +14585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A417" s="10" t="s">
         <v>248</v>
       </c>
@@ -14563,7 +14611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A418" s="7" t="s">
         <v>226</v>
       </c>
@@ -14587,7 +14635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A419" s="10" t="s">
         <v>103</v>
       </c>
@@ -14613,7 +14661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A420" s="7" t="s">
         <v>219</v>
       </c>
@@ -14639,7 +14687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A421" s="10" t="s">
         <v>303</v>
       </c>
@@ -14665,7 +14713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A422" s="7" t="s">
         <v>322</v>
       </c>
@@ -14691,7 +14739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A423" s="10" t="s">
         <v>94</v>
       </c>
@@ -14717,7 +14765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A424" s="7" t="s">
         <v>18</v>
       </c>
@@ -14743,7 +14791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A425" s="10" t="s">
         <v>113</v>
       </c>
@@ -14769,7 +14817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A426" s="7" t="s">
         <v>324</v>
       </c>
@@ -14795,7 +14843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A427" s="10" t="s">
         <v>329</v>
       </c>
@@ -14821,7 +14869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A428" s="7" t="s">
         <v>59</v>
       </c>
@@ -14847,7 +14895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A429" s="10" t="s">
         <v>330</v>
       </c>
@@ -14873,7 +14921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A430" s="7" t="s">
         <v>13</v>
       </c>
@@ -14899,7 +14947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A431" s="10" t="s">
         <v>317</v>
       </c>
@@ -14925,7 +14973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A432" s="7" t="s">
         <v>331</v>
       </c>
@@ -14951,7 +14999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A433" s="10" t="s">
         <v>18</v>
       </c>
@@ -14977,7 +15025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A434" s="7" t="s">
         <v>114</v>
       </c>
@@ -15003,7 +15051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A435" s="10" t="s">
         <v>270</v>
       </c>
@@ -15029,7 +15077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A436" s="7" t="s">
         <v>48</v>
       </c>
@@ -15055,7 +15103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A437" s="10" t="s">
         <v>332</v>
       </c>
@@ -15081,7 +15129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A438" s="7" t="s">
         <v>333</v>
       </c>
@@ -15105,7 +15153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A439" s="10" t="s">
         <v>291</v>
       </c>
@@ -15131,7 +15179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A440" s="7" t="s">
         <v>334</v>
       </c>
@@ -15157,7 +15205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A441" s="10" t="s">
         <v>335</v>
       </c>
@@ -15183,7 +15231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A442" s="7" t="s">
         <v>336</v>
       </c>
@@ -15209,7 +15257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A443" s="10" t="s">
         <v>337</v>
       </c>
@@ -15235,7 +15283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A444" s="7" t="s">
         <v>338</v>
       </c>
@@ -15261,7 +15309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A445" s="10" t="s">
         <v>165</v>
       </c>
@@ -15287,7 +15335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A446" s="7" t="s">
         <v>133</v>
       </c>
@@ -15313,7 +15361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A447" s="10" t="s">
         <v>339</v>
       </c>
@@ -15339,7 +15387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A448" s="7" t="s">
         <v>237</v>
       </c>
@@ -15365,7 +15413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A449" s="10" t="s">
         <v>171</v>
       </c>
@@ -15391,7 +15439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A450" s="7" t="s">
         <v>231</v>
       </c>
@@ -15417,7 +15465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A451" s="10" t="s">
         <v>340</v>
       </c>
@@ -15443,7 +15491,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A452" s="7" t="s">
         <v>341</v>
       </c>
@@ -15469,7 +15517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A453" s="10" t="s">
         <v>171</v>
       </c>
@@ -15495,7 +15543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A454" s="7" t="s">
         <v>282</v>
       </c>
@@ -15521,7 +15569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A455" s="10" t="s">
         <v>46</v>
       </c>
@@ -15547,7 +15595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A456" s="7" t="s">
         <v>124</v>
       </c>
@@ -15573,7 +15621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A457" s="10" t="s">
         <v>171</v>
       </c>
@@ -15599,7 +15647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A458" s="7" t="s">
         <v>342</v>
       </c>
@@ -15625,7 +15673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A459" s="10" t="s">
         <v>275</v>
       </c>
@@ -15651,7 +15699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A460" s="7" t="s">
         <v>131</v>
       </c>
@@ -15677,7 +15725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A461" s="10" t="s">
         <v>214</v>
       </c>
@@ -15703,7 +15751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A462" s="7" t="s">
         <v>82</v>
       </c>
@@ -15729,7 +15777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A463" s="10" t="s">
         <v>343</v>
       </c>
@@ -15755,7 +15803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A464" s="7" t="s">
         <v>59</v>
       </c>
@@ -15781,7 +15829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A465" s="10" t="s">
         <v>146</v>
       </c>
@@ -15807,7 +15855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A466" s="7" t="s">
         <v>198</v>
       </c>
@@ -15833,7 +15881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A467" s="10" t="s">
         <v>344</v>
       </c>
@@ -15859,7 +15907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A468" s="7" t="s">
         <v>188</v>
       </c>
@@ -15885,7 +15933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A469" s="10" t="s">
         <v>90</v>
       </c>
@@ -15911,7 +15959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A470" s="7" t="s">
         <v>345</v>
       </c>
@@ -15937,7 +15985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A471" s="10" t="s">
         <v>56</v>
       </c>
@@ -15963,7 +16011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A472" s="7" t="s">
         <v>346</v>
       </c>
@@ -15989,7 +16037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A473" s="10" t="s">
         <v>51</v>
       </c>
@@ -16015,7 +16063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A474" s="7" t="s">
         <v>80</v>
       </c>
@@ -16041,7 +16089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A475" s="10" t="s">
         <v>347</v>
       </c>
@@ -16067,7 +16115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A476" s="7" t="s">
         <v>348</v>
       </c>
@@ -16093,7 +16141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A477" s="10" t="s">
         <v>321</v>
       </c>
@@ -16119,7 +16167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A478" s="7" t="s">
         <v>282</v>
       </c>
@@ -16145,7 +16193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A479" s="10" t="s">
         <v>349</v>
       </c>
@@ -16171,7 +16219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A480" s="7" t="s">
         <v>350</v>
       </c>
@@ -16197,7 +16245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A481" s="10" t="s">
         <v>331</v>
       </c>
@@ -16223,7 +16271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A482" s="7" t="s">
         <v>101</v>
       </c>
@@ -16249,7 +16297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A483" s="10" t="s">
         <v>351</v>
       </c>
@@ -16275,7 +16323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A484" s="7" t="s">
         <v>280</v>
       </c>
@@ -16301,7 +16349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A485" s="10" t="s">
         <v>352</v>
       </c>
@@ -16327,7 +16375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A486" s="7" t="s">
         <v>353</v>
       </c>
@@ -16353,7 +16401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A487" s="10" t="s">
         <v>296</v>
       </c>
@@ -16379,7 +16427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A488" s="7" t="s">
         <v>254</v>
       </c>
@@ -16405,7 +16453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A489" s="10" t="s">
         <v>160</v>
       </c>
@@ -16431,7 +16479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A490" s="7" t="s">
         <v>340</v>
       </c>
@@ -16457,7 +16505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A491" s="10" t="s">
         <v>163</v>
       </c>
@@ -16483,7 +16531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A492" s="7" t="s">
         <v>144</v>
       </c>
@@ -16509,7 +16557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A493" s="10" t="s">
         <v>198</v>
       </c>
@@ -16535,7 +16583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A494" s="7" t="s">
         <v>354</v>
       </c>
@@ -16561,7 +16609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A495" s="10" t="s">
         <v>355</v>
       </c>
@@ -16587,7 +16635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A496" s="7" t="s">
         <v>356</v>
       </c>
@@ -16613,7 +16661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" s="10" t="s">
         <v>72</v>
       </c>
@@ -16639,7 +16687,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A498" s="7" t="s">
         <v>357</v>
       </c>
@@ -16665,7 +16713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A499" s="10" t="s">
         <v>131</v>
       </c>
@@ -16691,7 +16739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" s="7" t="s">
         <v>316</v>
       </c>
@@ -16717,7 +16765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" s="1" t="s">
         <v>216</v>
       </c>
@@ -16745,8 +16793,8 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="U2:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16776,25 +16824,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="18"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
@@ -16808,34 +16856,34 @@
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K8" s="13" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="22"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>440</v>
+      <c r="K9" s="20" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
@@ -18393,15 +18441,15 @@
     <mergeCell ref="E3:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="K2 K5:K6 K11:K1048576">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",N7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",N7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18433,25 +18481,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="18"/>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K6" t="s">
@@ -18466,46 +18514,46 @@
     </row>
     <row r="8" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="K8" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="L8" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>445</v>
+        <v>432</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="22"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>441</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>442</v>
+      <c r="K9" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.25">
@@ -20463,15 +20511,15 @@
     <mergeCell ref="E3:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="K2 K5:K6 K11:K1048576">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",N7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",N7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20503,22 +20551,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20528,7 +20576,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="L7" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -20537,30 +20585,30 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D9" s="22"/>
-      <c r="E9" s="19" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="L9" s="21" t="s">
-        <v>440</v>
+      <c r="L9" s="20" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
@@ -22118,15 +22166,15 @@
     <mergeCell ref="F3:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L11:L60">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="False">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",O7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22158,73 +22206,73 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="33" t="s">
-        <v>568</v>
+      <c r="K6" s="24" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K7" s="34">
+      <c r="K7" s="25">
         <v>300</v>
       </c>
     </row>
     <row r="9" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="22"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>440</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="M9" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="N9" s="32" t="s">
-        <v>435</v>
-      </c>
-      <c r="O9" s="32" t="s">
-        <v>436</v>
-      </c>
-      <c r="P9" s="32" t="s">
+      <c r="K9" s="20" t="s">
         <v>433</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="3:16" x14ac:dyDescent="0.25">
@@ -23582,10 +23630,10 @@
     <mergeCell ref="E3:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",L7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",L7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23597,7 +23645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29E3579-7FC6-4E70-97BB-4FD3BD0D899A}">
   <dimension ref="C3:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -23616,22 +23664,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23639,35 +23687,35 @@
       <c r="K7">
         <v>300</v>
       </c>
-      <c r="L7" s="34" t="s">
-        <v>569</v>
+      <c r="L7" s="25" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="22"/>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="21"/>
+      <c r="D9" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>440</v>
+      <c r="K9" s="20" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">

--- a/Functions/1 IF, IFs, AND, OR Functions/1 IF Function Complate Details.xlsx
+++ b/Functions/1 IF, IFs, AND, OR Functions/1 IF Function Complate Details.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA Analytics Study data\Digital Analysis 3.0M\GitHub\Excel-Advance-Practice\Functions\1 IF, IFs, AND, OR Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Excel-Advance-Practice\Functions\1 IF, IFs, AND, OR Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E154C940-B07B-419D-8630-CF3E76B2CFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD889B0F-1FE5-4E5C-8B98-A56A597A996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{532EFC78-B8CB-42A4-8E9F-7A2F39BC48D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{532EFC78-B8CB-42A4-8E9F-7A2F39BC48D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Data File" sheetId="2" r:id="rId1"/>
@@ -2581,6 +2581,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2605,9 +2608,6 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2653,7 +2653,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2671,16 +2671,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3106,7 +3096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE823EC-3807-48D2-B0A9-D8482940564A}">
   <dimension ref="A1:Q501"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -3191,10 +3181,10 @@
       <c r="H2" s="9">
         <v>7</v>
       </c>
-      <c r="O2" s="24" t="s">
+      <c r="O2" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="27" t="s">
         <v>487</v>
       </c>
     </row>
@@ -3223,8 +3213,8 @@
       <c r="H3" s="12">
         <v>14</v>
       </c>
-      <c r="O3" s="25"/>
-      <c r="Q3" s="25"/>
+      <c r="O3" s="28"/>
+      <c r="Q3" s="28"/>
     </row>
     <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
@@ -16776,22 +16766,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K5" s="18"/>
@@ -18393,15 +18383,15 @@
     <mergeCell ref="E3:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="K2 K5:K6 K11:K1048576">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",N7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",N7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18433,22 +18423,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="3:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K5" s="18"/>
@@ -20463,15 +20453,15 @@
     <mergeCell ref="E3:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="K2 K5:K6 K11:K1048576">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",N7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",N7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20503,22 +20493,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="28"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -22118,15 +22108,15 @@
     <mergeCell ref="F3:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="L11:L60">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="False">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="False">
       <formula>NOT(ISERROR(SEARCH("False",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",O7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",O7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22158,30 +22148,30 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="6" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="25" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="7" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="K7" s="34">
+      <c r="K7" s="26">
         <v>300</v>
       </c>
     </row>
@@ -22211,19 +22201,19 @@
       <c r="K9" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="L9" s="32" t="s">
+      <c r="L9" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="M9" s="32" t="s">
+      <c r="M9" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="N9" s="32" t="s">
+      <c r="N9" s="24" t="s">
         <v>435</v>
       </c>
-      <c r="O9" s="32" t="s">
+      <c r="O9" s="24" t="s">
         <v>436</v>
       </c>
-      <c r="P9" s="32" t="s">
+      <c r="P9" s="24" t="s">
         <v>433</v>
       </c>
     </row>
@@ -23582,10 +23572,10 @@
     <mergeCell ref="E3:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",L7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="student">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="student">
       <formula>NOT(ISERROR(SEARCH("student",L7)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23597,7 +23587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D29E3579-7FC6-4E70-97BB-4FD3BD0D899A}">
   <dimension ref="C3:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -23616,22 +23606,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -23639,7 +23629,7 @@
       <c r="K7">
         <v>300</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="26" t="s">
         <v>569</v>
       </c>
     </row>
